--- a/data/previous.xlsx
+++ b/data/previous.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95AA8218-E375-446D-90AD-DBBA5BBF745C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{84C4A5A4-774F-413D-BA65-C4BA17ABD90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D7A5B0E-6301-4349-8DD8-8A3AFE326415}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -331,16 +331,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>東京都千代田区九段南１－５－６</t>
-    <rPh sb="3" eb="7">
-      <t>チヨダク</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>クダンミナミ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>東京都渋谷区恵比寿南３－５－７</t>
     <rPh sb="3" eb="6">
       <t>シブヤク</t>
@@ -3656,6 +3646,13 @@
   </si>
   <si>
     <t>0120-694-044</t>
+  </si>
+  <si>
+    <t>東京都千代田区神田神保町３－２５</t>
+    <rPh sb="0" eb="1">
+      <t>ヒガシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -5307,7 +5304,7 @@
   </sheetPr>
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="70" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:K1"/>
     </sheetView>
@@ -5342,7 +5339,7 @@
     </row>
     <row r="2" spans="1:11" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="89" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" s="89"/>
       <c r="C2" s="89"/>
@@ -5365,7 +5362,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="7"/>
       <c r="I3" s="93">
-        <v>45991</v>
+        <v>46022</v>
       </c>
       <c r="J3" s="93"/>
       <c r="K3" s="93"/>
@@ -5384,7 +5381,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="94" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F4" s="84" t="s">
         <v>4</v>
@@ -5396,7 +5393,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="90" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J4" s="91"/>
       <c r="K4" s="92"/>
@@ -5411,13 +5408,13 @@
       <c r="G5" s="95"/>
       <c r="H5" s="85"/>
       <c r="I5" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="K5" s="53" t="s">
         <v>209</v>
-      </c>
-      <c r="K5" s="53" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="40.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -5427,58 +5424,58 @@
 【計2業者】</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C6" s="45">
         <v>44592</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E6" s="47">
         <v>5010001125807</v>
       </c>
       <c r="F6" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="G6" s="46" t="s">
         <v>230</v>
       </c>
-      <c r="G6" s="46" t="s">
+      <c r="H6" s="48" t="s">
         <v>231</v>
-      </c>
-      <c r="H6" s="48" t="s">
-        <v>232</v>
       </c>
       <c r="I6" s="49"/>
       <c r="J6" s="49" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K6" s="55"/>
     </row>
     <row r="7" spans="1:11" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="56"/>
       <c r="B7" s="39" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C7" s="50">
         <v>45833</v>
       </c>
       <c r="D7" s="51" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E7" s="52">
         <v>9010401124520</v>
       </c>
       <c r="F7" s="39" t="s">
+        <v>399</v>
+      </c>
+      <c r="G7" s="51" t="s">
         <v>400</v>
       </c>
-      <c r="G7" s="51" t="s">
+      <c r="H7" s="39" t="s">
         <v>401</v>
-      </c>
-      <c r="H7" s="39" t="s">
-        <v>402</v>
       </c>
       <c r="I7" s="26"/>
       <c r="J7" s="26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K7" s="57"/>
     </row>
@@ -5495,23 +5492,23 @@
         <v>40269</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E8" s="13">
         <v>3010401058641</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>9</v>
       </c>
       <c r="I8" s="14"/>
       <c r="J8" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K8" s="59"/>
     </row>
@@ -5524,25 +5521,25 @@
         <v>40340</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E9" s="18">
         <v>3010701023295</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K9" s="61"/>
     </row>
@@ -5555,23 +5552,23 @@
         <v>40389</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E10" s="18">
         <v>5010401089313</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H10" s="15" t="s">
         <v>12</v>
       </c>
       <c r="I10" s="19"/>
       <c r="J10" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K10" s="61"/>
     </row>
@@ -5584,7 +5581,7 @@
         <v>40497</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E11" s="18">
         <v>5010501030903</v>
@@ -5593,14 +5590,14 @@
         <v>15</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I11" s="19"/>
       <c r="J11" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K11" s="61"/>
     </row>
@@ -5613,23 +5610,23 @@
         <v>40519</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E12" s="18">
         <v>9010401089532</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H12" s="21" t="s">
         <v>16</v>
       </c>
       <c r="I12" s="19"/>
       <c r="J12" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K12" s="61"/>
     </row>
@@ -5642,23 +5639,23 @@
         <v>40603</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E13" s="18">
         <v>6010401071583</v>
       </c>
       <c r="F13" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="G13" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="G13" s="20" t="s">
-        <v>358</v>
-      </c>
       <c r="H13" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I13" s="19"/>
       <c r="J13" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K13" s="61"/>
     </row>
@@ -5671,23 +5668,23 @@
         <v>40644</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E14" s="18">
         <v>9010001134572</v>
       </c>
       <c r="F14" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="21" t="s">
         <v>140</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>141</v>
       </c>
       <c r="I14" s="19"/>
       <c r="J14" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K14" s="61"/>
     </row>
@@ -5700,7 +5697,7 @@
         <v>40681</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E15" s="18">
         <v>1010001067912</v>
@@ -5709,14 +5706,14 @@
         <v>20</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H15" s="21" t="s">
         <v>21</v>
       </c>
       <c r="I15" s="19"/>
       <c r="J15" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K15" s="61"/>
     </row>
@@ -5729,1943 +5726,1943 @@
         <v>40715</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E16" s="18">
         <v>8010001103611</v>
       </c>
       <c r="F16" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="H16" s="21" t="s">
         <v>142</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="21" t="s">
-        <v>143</v>
       </c>
       <c r="I16" s="19"/>
       <c r="J16" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K16" s="61"/>
     </row>
     <row r="17" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="62"/>
       <c r="B17" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="16">
         <v>40750</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E17" s="18">
         <v>5010601030547</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I17" s="19"/>
       <c r="J17" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K17" s="61"/>
     </row>
     <row r="18" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="62"/>
       <c r="B18" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="16">
         <v>40798</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E18" s="18">
         <v>4010401058731</v>
       </c>
       <c r="F18" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="H18" s="21" t="s">
         <v>222</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="H18" s="21" t="s">
-        <v>223</v>
       </c>
       <c r="I18" s="19"/>
       <c r="J18" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K18" s="61"/>
     </row>
     <row r="19" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="62"/>
       <c r="B19" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="16">
         <v>40863</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E19" s="18">
         <v>7011101036066</v>
       </c>
       <c r="F19" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="H19" s="21" t="s">
-        <v>31</v>
-      </c>
       <c r="I19" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J19" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K19" s="61"/>
     </row>
     <row r="20" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="62"/>
       <c r="B20" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" s="16">
         <v>40954</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E20" s="18">
         <v>1011101057035</v>
       </c>
       <c r="F20" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="21" t="s">
         <v>145</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="H20" s="21" t="s">
-        <v>146</v>
       </c>
       <c r="I20" s="19"/>
       <c r="J20" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K20" s="61"/>
     </row>
     <row r="21" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="62"/>
       <c r="B21" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="16">
         <v>40966</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E21" s="18">
         <v>4010401084380</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I21" s="19"/>
       <c r="J21" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K21" s="61"/>
     </row>
     <row r="22" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="62"/>
       <c r="B22" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="16">
         <v>40996</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E22" s="18">
         <v>1010401095934</v>
       </c>
       <c r="F22" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" s="21" t="s">
         <v>36</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="H22" s="21" t="s">
-        <v>37</v>
       </c>
       <c r="I22" s="19"/>
       <c r="J22" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K22" s="61"/>
     </row>
     <row r="23" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="62"/>
       <c r="B23" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="16">
         <v>41085</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E23" s="18">
         <v>6011101062006</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I23" s="19"/>
       <c r="J23" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K23" s="61"/>
     </row>
     <row r="24" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="62"/>
       <c r="B24" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24" s="16">
         <v>41122</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E24" s="18">
         <v>3700150006491</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I24" s="19"/>
       <c r="J24" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K24" s="61"/>
     </row>
     <row r="25" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="62"/>
       <c r="B25" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="16">
         <v>41264</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E25" s="18">
         <v>2010401087071</v>
       </c>
       <c r="F25" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="G25" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="G25" s="20" t="s">
-        <v>234</v>
-      </c>
       <c r="H25" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I25" s="19"/>
       <c r="J25" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K25" s="61"/>
     </row>
     <row r="26" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="62"/>
       <c r="B26" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="22">
         <v>41442</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E26" s="18">
         <v>6010401094452</v>
       </c>
       <c r="F26" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="G26" s="20" t="s">
         <v>340</v>
       </c>
-      <c r="G26" s="20" t="s">
+      <c r="H26" s="21" t="s">
         <v>341</v>
-      </c>
-      <c r="H26" s="21" t="s">
-        <v>342</v>
       </c>
       <c r="I26" s="19"/>
       <c r="J26" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K26" s="61"/>
     </row>
     <row r="27" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="62"/>
       <c r="B27" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" s="22">
         <v>41451</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E27" s="18">
         <v>9010401099531</v>
       </c>
       <c r="F27" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="G27" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="G27" s="20" t="s">
-        <v>344</v>
-      </c>
       <c r="H27" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I27" s="19"/>
       <c r="J27" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K27" s="61"/>
     </row>
     <row r="28" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="62"/>
       <c r="B28" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="22">
         <v>41516</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E28" s="18">
         <v>6011101063994</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I28" s="19"/>
       <c r="J28" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K28" s="61"/>
     </row>
     <row r="29" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="62"/>
       <c r="B29" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C29" s="22">
         <v>41558</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E29" s="18">
         <v>1020001100705</v>
       </c>
       <c r="F29" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="H29" s="21" t="s">
         <v>157</v>
-      </c>
-      <c r="G29" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="H29" s="21" t="s">
-        <v>158</v>
       </c>
       <c r="I29" s="19"/>
       <c r="J29" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K29" s="61"/>
     </row>
     <row r="30" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="62"/>
       <c r="B30" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C30" s="22">
         <v>41880</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E30" s="18">
         <v>9010401105000</v>
       </c>
       <c r="F30" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="H30" s="21" t="s">
         <v>159</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="H30" s="21" t="s">
-        <v>160</v>
       </c>
       <c r="I30" s="19"/>
       <c r="J30" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K30" s="61"/>
     </row>
     <row r="31" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="62"/>
       <c r="B31" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" s="22">
         <v>41969</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E31" s="18">
         <v>6011001005411</v>
       </c>
       <c r="F31" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="H31" s="21" t="s">
         <v>161</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="H31" s="21" t="s">
-        <v>162</v>
       </c>
       <c r="I31" s="19"/>
       <c r="J31" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K31" s="61"/>
     </row>
     <row r="32" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="62"/>
       <c r="B32" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C32" s="22">
         <v>42041</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E32" s="18">
         <v>6011001092945</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H32" s="21" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I32" s="19"/>
       <c r="J32" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K32" s="61"/>
     </row>
     <row r="33" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="63"/>
       <c r="B33" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33" s="22">
         <v>42234</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E33" s="18">
         <v>5010401114302</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H33" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I33" s="19"/>
       <c r="J33" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K33" s="61"/>
     </row>
     <row r="34" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="63"/>
       <c r="B34" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C34" s="22">
         <v>42234</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E34" s="18">
         <v>4011001100453</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I34" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J34" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K34" s="61"/>
     </row>
     <row r="35" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="63"/>
       <c r="B35" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C35" s="22">
         <v>42340</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E35" s="18">
         <v>9010401113770</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H35" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I35" s="19"/>
       <c r="J35" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K35" s="61"/>
     </row>
     <row r="36" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="63"/>
       <c r="B36" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C36" s="22">
         <v>42481</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E36" s="18">
         <v>1011001053935</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H36" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I36" s="19"/>
       <c r="J36" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K36" s="61"/>
     </row>
     <row r="37" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="64"/>
       <c r="B37" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C37" s="22">
         <v>42506</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E37" s="18">
         <v>8010001164001</v>
       </c>
       <c r="F37" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="H37" s="21" t="s">
         <v>168</v>
-      </c>
-      <c r="G37" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="H37" s="21" t="s">
-        <v>169</v>
       </c>
       <c r="I37" s="19"/>
       <c r="J37" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K37" s="61"/>
     </row>
     <row r="38" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="63"/>
       <c r="B38" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C38" s="23">
         <v>42544</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E38" s="18">
         <v>4010001166406</v>
       </c>
       <c r="F38" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="G38" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="G38" s="20" t="s">
-        <v>270</v>
-      </c>
       <c r="H38" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I38" s="19"/>
       <c r="J38" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K38" s="61"/>
     </row>
     <row r="39" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="62"/>
       <c r="B39" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C39" s="23">
         <v>42704</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E39" s="18">
         <v>7700150006587</v>
       </c>
       <c r="F39" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="G39" s="20" t="s">
         <v>349</v>
       </c>
-      <c r="G39" s="20" t="s">
-        <v>350</v>
-      </c>
       <c r="H39" s="21" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I39" s="19"/>
       <c r="J39" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K39" s="61"/>
     </row>
     <row r="40" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="62"/>
       <c r="B40" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C40" s="23">
         <v>42830</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E40" s="18">
         <v>9011101071185</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G40" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="H40" s="21" t="s">
         <v>378</v>
-      </c>
-      <c r="H40" s="21" t="s">
-        <v>379</v>
       </c>
       <c r="I40" s="19"/>
       <c r="J40" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K40" s="61"/>
     </row>
     <row r="41" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="62"/>
       <c r="B41" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C41" s="23">
         <v>42919</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E41" s="18">
         <v>2010001057425</v>
       </c>
       <c r="F41" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="G41" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="H41" s="21" t="s">
         <v>172</v>
-      </c>
-      <c r="G41" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="H41" s="21" t="s">
-        <v>173</v>
       </c>
       <c r="I41" s="19"/>
       <c r="J41" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K41" s="61"/>
     </row>
     <row r="42" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="62"/>
       <c r="B42" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C42" s="23">
         <v>43013</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E42" s="18">
         <v>6011101080437</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G42" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H42" s="21" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I42" s="19"/>
       <c r="J42" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K42" s="61"/>
     </row>
     <row r="43" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="62"/>
       <c r="B43" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C43" s="23">
         <v>43060</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E43" s="18">
         <v>1011101032839</v>
       </c>
       <c r="F43" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="G43" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="G43" s="20" t="s">
+      <c r="H43" s="21" t="s">
         <v>175</v>
-      </c>
-      <c r="H43" s="21" t="s">
-        <v>176</v>
       </c>
       <c r="I43" s="19"/>
       <c r="J43" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K43" s="61"/>
     </row>
     <row r="44" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="62"/>
       <c r="B44" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C44" s="23">
         <v>43067</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E44" s="18">
         <v>5010401069983</v>
       </c>
       <c r="F44" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="G44" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="H44" s="21" t="s">
         <v>177</v>
-      </c>
-      <c r="G44" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="H44" s="21" t="s">
-        <v>178</v>
       </c>
       <c r="I44" s="19"/>
       <c r="J44" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K44" s="61"/>
     </row>
     <row r="45" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="62"/>
       <c r="B45" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C45" s="23">
         <v>43076</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E45" s="18">
         <v>2010001183865</v>
       </c>
       <c r="F45" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="G45" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="G45" s="20" t="s">
-        <v>207</v>
-      </c>
       <c r="H45" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I45" s="19"/>
       <c r="J45" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K45" s="61"/>
     </row>
     <row r="46" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="62"/>
       <c r="B46" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C46" s="23">
         <v>43117</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E46" s="18">
         <v>3011101071892</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G46" s="20" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H46" s="21" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I46" s="19"/>
       <c r="J46" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K46" s="61"/>
     </row>
     <row r="47" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="62"/>
       <c r="B47" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C47" s="23">
         <v>43173</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E47" s="18">
         <v>8010601051334</v>
       </c>
       <c r="F47" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="G47" s="20" t="s">
         <v>366</v>
       </c>
-      <c r="G47" s="20" t="s">
-        <v>367</v>
-      </c>
       <c r="H47" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I47" s="19"/>
       <c r="J47" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K47" s="61"/>
     </row>
     <row r="48" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="62"/>
       <c r="B48" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C48" s="23">
         <v>43181</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E48" s="18">
         <v>1010401135178</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G48" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="H48" s="21" t="s">
         <v>181</v>
-      </c>
-      <c r="H48" s="21" t="s">
-        <v>182</v>
       </c>
       <c r="I48" s="19"/>
       <c r="J48" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K48" s="61"/>
     </row>
     <row r="49" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="62"/>
       <c r="B49" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C49" s="23">
         <v>43213</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E49" s="18">
         <v>1010001188907</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G49" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="H49" s="21" t="s">
         <v>184</v>
-      </c>
-      <c r="H49" s="21" t="s">
-        <v>185</v>
       </c>
       <c r="I49" s="19"/>
       <c r="J49" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K49" s="61"/>
     </row>
     <row r="50" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="62"/>
       <c r="B50" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C50" s="23">
         <v>43263</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E50" s="18">
         <v>3010001183897</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G50" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H50" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I50" s="19"/>
       <c r="J50" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K50" s="61"/>
     </row>
     <row r="51" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="62"/>
       <c r="B51" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C51" s="23">
         <v>43307</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E51" s="18">
         <v>8010001188396</v>
       </c>
       <c r="F51" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="G51" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="H51" s="21" t="s">
         <v>187</v>
-      </c>
-      <c r="G51" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="H51" s="21" t="s">
-        <v>188</v>
       </c>
       <c r="I51" s="19"/>
       <c r="J51" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K51" s="61"/>
     </row>
     <row r="52" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="62"/>
       <c r="B52" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C52" s="23">
         <v>43308</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E52" s="18">
         <v>5011401019978</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G52" s="20" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H52" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I52" s="19"/>
       <c r="J52" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K52" s="61"/>
     </row>
     <row r="53" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="62"/>
       <c r="B53" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C53" s="23">
         <v>43327</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E53" s="18">
         <v>4010701034738</v>
       </c>
       <c r="F53" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="G53" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="H53" s="21" t="s">
         <v>189</v>
-      </c>
-      <c r="G53" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="H53" s="21" t="s">
-        <v>190</v>
       </c>
       <c r="I53" s="19"/>
       <c r="J53" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K53" s="61"/>
     </row>
     <row r="54" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="62"/>
       <c r="B54" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C54" s="23">
         <v>43375</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E54" s="24">
         <v>4011001117670</v>
       </c>
       <c r="F54" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="G54" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="H54" s="21" t="s">
         <v>191</v>
-      </c>
-      <c r="G54" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="H54" s="21" t="s">
-        <v>192</v>
       </c>
       <c r="I54" s="19"/>
       <c r="J54" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K54" s="61"/>
     </row>
     <row r="55" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="62"/>
       <c r="B55" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="C55" s="23" t="s">
-        <v>106</v>
-      </c>
       <c r="D55" s="20" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E55" s="24">
         <v>3013301041741</v>
       </c>
       <c r="F55" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="G55" s="20" t="s">
+        <v>402</v>
+      </c>
+      <c r="H55" s="21" t="s">
         <v>193</v>
-      </c>
-      <c r="G55" s="20" t="s">
-        <v>403</v>
-      </c>
-      <c r="H55" s="21" t="s">
-        <v>194</v>
       </c>
       <c r="I55" s="19"/>
       <c r="J55" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K55" s="61"/>
     </row>
     <row r="56" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="62"/>
       <c r="B56" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="C56" s="23" t="s">
-        <v>108</v>
-      </c>
       <c r="D56" s="20" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E56" s="24">
         <v>3010901038102</v>
       </c>
       <c r="F56" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G56" s="20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H56" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I56" s="19"/>
       <c r="J56" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K56" s="61"/>
     </row>
     <row r="57" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="62"/>
       <c r="B57" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="C57" s="23" t="s">
-        <v>110</v>
-      </c>
       <c r="D57" s="20" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E57" s="24">
         <v>5010001192707</v>
       </c>
       <c r="F57" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G57" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H57" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I57" s="19"/>
       <c r="J57" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K57" s="61"/>
     </row>
     <row r="58" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="62"/>
       <c r="B58" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="C58" s="23" t="s">
-        <v>113</v>
-      </c>
       <c r="D58" s="20" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E58" s="24">
         <v>7013301041449</v>
       </c>
       <c r="F58" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="G58" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="G58" s="20" t="s">
+      <c r="H58" s="21" t="s">
         <v>259</v>
-      </c>
-      <c r="H58" s="21" t="s">
-        <v>260</v>
       </c>
       <c r="I58" s="19"/>
       <c r="J58" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K58" s="61"/>
     </row>
     <row r="59" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="62"/>
       <c r="B59" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C59" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="C59" s="23" t="s">
-        <v>115</v>
-      </c>
       <c r="D59" s="20" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E59" s="24">
         <v>3010001167611</v>
       </c>
       <c r="F59" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="G59" s="20" t="s">
         <v>374</v>
       </c>
-      <c r="G59" s="20" t="s">
-        <v>375</v>
-      </c>
       <c r="H59" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I59" s="19"/>
       <c r="J59" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K59" s="61"/>
     </row>
     <row r="60" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="62"/>
       <c r="B60" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="C60" s="23" t="s">
-        <v>117</v>
-      </c>
       <c r="D60" s="20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E60" s="24">
         <v>3010401049814</v>
       </c>
       <c r="F60" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="G60" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="H60" s="21" t="s">
         <v>198</v>
-      </c>
-      <c r="G60" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="H60" s="21" t="s">
-        <v>199</v>
       </c>
       <c r="I60" s="19"/>
       <c r="J60" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K60" s="61"/>
     </row>
     <row r="61" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="62"/>
       <c r="B61" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="C61" s="23" t="s">
-        <v>120</v>
-      </c>
       <c r="D61" s="20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E61" s="24">
         <v>2010001190192</v>
       </c>
       <c r="F61" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="G61" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="G61" s="20" t="s">
+      <c r="H61" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="H61" s="21" t="s">
-        <v>228</v>
-      </c>
       <c r="I61" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J61" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K61" s="61"/>
     </row>
     <row r="62" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="62"/>
       <c r="B62" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C62" s="23">
         <v>43868</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E62" s="24">
         <v>5011801019594</v>
       </c>
       <c r="F62" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="G62" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="H62" s="21" t="s">
         <v>200</v>
-      </c>
-      <c r="G62" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="H62" s="21" t="s">
-        <v>201</v>
       </c>
       <c r="I62" s="19"/>
       <c r="J62" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K62" s="61"/>
     </row>
     <row r="63" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="62"/>
       <c r="B63" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C63" s="23">
         <v>43868</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E63" s="24">
         <v>3010001161300</v>
       </c>
       <c r="F63" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="G63" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="G63" s="20" t="s">
-        <v>365</v>
-      </c>
       <c r="H63" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I63" s="19"/>
       <c r="J63" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K63" s="61"/>
     </row>
     <row r="64" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="62"/>
       <c r="B64" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C64" s="23">
         <v>43887</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E64" s="24">
         <v>9011401020230</v>
       </c>
       <c r="F64" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="G64" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="G64" s="20" t="s">
-        <v>371</v>
-      </c>
       <c r="H64" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I64" s="19"/>
       <c r="J64" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K64" s="61"/>
     </row>
     <row r="65" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="62"/>
       <c r="B65" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C65" s="23">
         <v>43888</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E65" s="24">
         <v>9010401134148</v>
       </c>
       <c r="F65" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G65" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="H65" s="21" t="s">
         <v>271</v>
-      </c>
-      <c r="H65" s="21" t="s">
-        <v>272</v>
       </c>
       <c r="I65" s="19"/>
       <c r="J65" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K65" s="61"/>
     </row>
     <row r="66" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="62"/>
       <c r="B66" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C66" s="23">
         <v>43899</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E66" s="24">
         <v>7040001086061</v>
       </c>
       <c r="F66" s="21" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G66" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="H66" s="21" t="s">
         <v>261</v>
-      </c>
-      <c r="H66" s="21" t="s">
-        <v>262</v>
       </c>
       <c r="I66" s="19"/>
       <c r="J66" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K66" s="61"/>
     </row>
     <row r="67" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="62"/>
       <c r="B67" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C67" s="23">
         <v>43922</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E67" s="24">
         <v>6020001125152</v>
       </c>
       <c r="F67" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G67" s="17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H67" s="21" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I67" s="19"/>
       <c r="J67" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K67" s="61"/>
     </row>
     <row r="68" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="62"/>
       <c r="B68" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C68" s="23">
         <v>44056</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E68" s="24">
         <v>7010001206332</v>
       </c>
       <c r="F68" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="G68" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="G68" s="20" t="s">
+      <c r="H68" s="21" t="s">
         <v>256</v>
-      </c>
-      <c r="H68" s="21" t="s">
-        <v>257</v>
       </c>
       <c r="I68" s="19"/>
       <c r="J68" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K68" s="61"/>
     </row>
     <row r="69" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="62"/>
       <c r="B69" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C69" s="23">
         <v>44070</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E69" s="24">
         <v>9011001103831</v>
       </c>
       <c r="F69" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="G69" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="G69" s="20" t="s">
-        <v>265</v>
-      </c>
       <c r="H69" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I69" s="19"/>
       <c r="J69" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K69" s="61"/>
     </row>
     <row r="70" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="62"/>
       <c r="B70" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C70" s="23">
         <v>44127</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E70" s="24">
         <v>8011001127534</v>
       </c>
       <c r="F70" s="21" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G70" s="20" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H70" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I70" s="19"/>
       <c r="J70" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K70" s="61"/>
     </row>
     <row r="71" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="62"/>
       <c r="B71" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C71" s="23">
         <v>44335</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E71" s="24">
         <v>6013201011825</v>
       </c>
       <c r="F71" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="G71" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="G71" s="20" t="s">
+      <c r="H71" s="21" t="s">
         <v>215</v>
-      </c>
-      <c r="H71" s="21" t="s">
-        <v>216</v>
       </c>
       <c r="I71" s="19"/>
       <c r="J71" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K71" s="61"/>
     </row>
     <row r="72" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="62"/>
       <c r="B72" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C72" s="23">
         <v>44371</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E72" s="24">
         <v>8010401050511</v>
       </c>
       <c r="F72" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="G72" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="H72" s="21" t="s">
         <v>219</v>
-      </c>
-      <c r="G72" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="H72" s="21" t="s">
-        <v>220</v>
       </c>
       <c r="I72" s="19"/>
       <c r="J72" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K72" s="61"/>
     </row>
     <row r="73" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="62"/>
       <c r="B73" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C73" s="23">
         <v>44403</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E73" s="24">
         <v>5010401134795</v>
       </c>
       <c r="F73" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G73" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H73" s="21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I73" s="19"/>
       <c r="J73" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K73" s="61"/>
     </row>
     <row r="74" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="62"/>
       <c r="B74" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C74" s="23">
         <v>44650</v>
       </c>
       <c r="D74" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E74" s="24">
         <v>5012401017708</v>
       </c>
       <c r="F74" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="G74" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="G74" s="20" t="s">
+      <c r="H74" s="21" t="s">
         <v>240</v>
-      </c>
-      <c r="H74" s="21" t="s">
-        <v>241</v>
       </c>
       <c r="I74" s="19"/>
       <c r="J74" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K74" s="61"/>
     </row>
     <row r="75" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="62"/>
       <c r="B75" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C75" s="23">
         <v>44650</v>
       </c>
       <c r="D75" s="20" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E75" s="24">
         <v>2040001094812</v>
       </c>
       <c r="F75" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G75" s="20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H75" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I75" s="19"/>
       <c r="J75" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K75" s="61"/>
     </row>
     <row r="76" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="62"/>
       <c r="B76" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C76" s="23">
         <v>44650</v>
       </c>
       <c r="D76" s="20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E76" s="24">
         <v>8013301009057</v>
       </c>
       <c r="F76" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="G76" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="H76" s="21" t="s">
         <v>245</v>
-      </c>
-      <c r="G76" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="H76" s="21" t="s">
-        <v>246</v>
       </c>
       <c r="I76" s="19"/>
       <c r="J76" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K76" s="61"/>
     </row>
     <row r="77" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="62"/>
       <c r="B77" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C77" s="23">
         <v>44978</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E77" s="24">
         <v>4010401049813</v>
       </c>
       <c r="F77" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G77" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H77" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I77" s="19"/>
       <c r="J77" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K77" s="61"/>
     </row>
     <row r="78" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="65"/>
       <c r="B78" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C78" s="23">
         <v>45254</v>
       </c>
       <c r="D78" s="20" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E78" s="24">
         <v>3010401113537</v>
       </c>
       <c r="F78" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G78" s="20" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H78" s="21" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I78" s="19"/>
       <c r="J78" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K78" s="61"/>
     </row>
     <row r="79" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="65"/>
       <c r="B79" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C79" s="23">
         <v>45275</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E79" s="24">
         <v>6011101086450</v>
       </c>
       <c r="F79" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G79" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="H79" s="21" t="s">
         <v>352</v>
-      </c>
-      <c r="H79" s="21" t="s">
-        <v>353</v>
       </c>
       <c r="I79" s="19"/>
       <c r="J79" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K79" s="61"/>
     </row>
     <row r="80" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="65"/>
       <c r="B80" s="15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C80" s="23">
         <v>45735</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E80" s="24">
         <v>9010001141627</v>
       </c>
       <c r="F80" s="21" t="s">
+        <v>392</v>
+      </c>
+      <c r="G80" s="20" t="s">
         <v>393</v>
       </c>
-      <c r="G80" s="20" t="s">
+      <c r="H80" s="21" t="s">
         <v>394</v>
-      </c>
-      <c r="H80" s="21" t="s">
-        <v>395</v>
       </c>
       <c r="I80" s="19"/>
       <c r="J80" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K80" s="19"/>
     </row>
     <row r="81" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="65"/>
       <c r="B81" s="74" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C81" s="75">
         <v>45887</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E81" s="76">
         <v>1010001205562</v>
       </c>
       <c r="F81" s="77" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G81" s="78" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H81" s="77" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I81" s="79"/>
       <c r="J81" s="79" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K81" s="80"/>
     </row>
     <row r="82" spans="1:11" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="66"/>
       <c r="B82" s="39" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C82" s="81">
         <v>45908</v>
       </c>
       <c r="D82" s="20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E82" s="82">
         <v>1010401137711</v>
       </c>
       <c r="F82" s="83" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G82" s="25" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H82" s="83" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I82" s="26"/>
       <c r="J82" s="26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K82" s="57"/>
     </row>
@@ -7676,29 +7673,29 @@
 【計1業者】</v>
       </c>
       <c r="B83" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="28">
         <v>40575</v>
       </c>
       <c r="D83" s="29" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E83" s="30">
         <v>5200001003514</v>
       </c>
       <c r="F83" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="G83" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="G83" s="29" t="s">
+      <c r="H83" s="27" t="s">
         <v>94</v>
-      </c>
-      <c r="H83" s="27" t="s">
-        <v>95</v>
       </c>
       <c r="I83" s="31"/>
       <c r="J83" s="31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K83" s="67"/>
     </row>
@@ -7709,124 +7706,124 @@
 【計1業者】</v>
       </c>
       <c r="B84" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C84" s="33">
         <v>41075</v>
       </c>
       <c r="D84" s="34" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E84" s="35">
         <v>3210001014413</v>
       </c>
       <c r="F84" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="G84" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="G84" s="34" t="s">
+      <c r="H84" s="32" t="s">
         <v>98</v>
-      </c>
-      <c r="H84" s="32" t="s">
-        <v>99</v>
       </c>
       <c r="I84" s="31"/>
       <c r="J84" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K84" s="68"/>
     </row>
     <row r="85" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="69" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C85" s="11">
         <v>42174</v>
       </c>
       <c r="D85" s="36" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E85" s="13">
         <v>2120001137521</v>
       </c>
       <c r="F85" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="G85" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="H85" s="10" t="s">
         <v>100</v>
-      </c>
-      <c r="G85" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="H85" s="10" t="s">
-        <v>101</v>
       </c>
       <c r="I85" s="14"/>
       <c r="J85" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K85" s="70"/>
     </row>
     <row r="86" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="60"/>
       <c r="B86" s="15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C86" s="16">
         <v>45673</v>
       </c>
       <c r="D86" s="20" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E86" s="18">
         <v>1120001059675</v>
       </c>
       <c r="F86" s="38" t="s">
+        <v>382</v>
+      </c>
+      <c r="G86" s="20" t="s">
         <v>383</v>
       </c>
-      <c r="G86" s="20" t="s">
+      <c r="H86" s="15" t="s">
         <v>384</v>
-      </c>
-      <c r="H86" s="15" t="s">
-        <v>385</v>
       </c>
       <c r="I86" s="19"/>
       <c r="J86" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K86" s="71"/>
     </row>
     <row r="87" spans="1:11" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="56"/>
       <c r="B87" s="39" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C87" s="50">
         <v>45688</v>
       </c>
       <c r="D87" s="25" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E87" s="52">
         <v>9120001075640</v>
       </c>
       <c r="F87" s="72" t="s">
+        <v>387</v>
+      </c>
+      <c r="G87" s="25" t="s">
         <v>388</v>
       </c>
-      <c r="G87" s="25" t="s">
+      <c r="H87" s="39" t="s">
         <v>389</v>
       </c>
-      <c r="H87" s="39" t="s">
-        <v>390</v>
-      </c>
       <c r="I87" s="26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J87" s="26"/>
       <c r="K87" s="73"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="40" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B88" s="40"/>
       <c r="C88" s="40"/>

--- a/data/previous.xlsx
+++ b/data/previous.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{84C4A5A4-774F-413D-BA65-C4BA17ABD90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D7A5B0E-6301-4349-8DD8-8A3AFE326415}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{84C4A5A4-774F-413D-BA65-C4BA17ABD90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CD0E9F6-1865-4366-B459-7003CC6B0BDE}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2947,9 +2947,6 @@
     <t>株式会社メルペイ</t>
   </si>
   <si>
-    <t>ＣＵＲＦＥＸ　ＪＡＰＡＮ株式会社</t>
-  </si>
-  <si>
     <t>ＲＥＶＯＬＵＴ　ＴＥＣＨＮＯＬＯＧＩＥＳ　ＪＡＰＡＮ株式会社</t>
   </si>
   <si>
@@ -3653,6 +3650,9 @@
       <t>ヒガシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ｆｕｋｕｇｕ株式会社</t>
   </si>
 </sst>
 </file>
@@ -5362,7 +5362,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="7"/>
       <c r="I3" s="93">
-        <v>46022</v>
+        <v>46053</v>
       </c>
       <c r="J3" s="93"/>
       <c r="K3" s="93"/>
@@ -5424,13 +5424,13 @@
 【計2業者】</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C6" s="45">
         <v>44592</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E6" s="47">
         <v>5010001125807</v>
@@ -5453,25 +5453,25 @@
     <row r="7" spans="1:11" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="56"/>
       <c r="B7" s="39" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C7" s="50">
         <v>45833</v>
       </c>
       <c r="D7" s="51" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E7" s="52">
         <v>9010401124520</v>
       </c>
       <c r="F7" s="39" t="s">
+        <v>398</v>
+      </c>
+      <c r="G7" s="51" t="s">
         <v>399</v>
       </c>
-      <c r="G7" s="51" t="s">
+      <c r="H7" s="39" t="s">
         <v>400</v>
-      </c>
-      <c r="H7" s="39" t="s">
-        <v>401</v>
       </c>
       <c r="I7" s="26"/>
       <c r="J7" s="26" t="s">
@@ -5533,7 +5533,7 @@
         <v>88</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I9" s="19" t="s">
         <v>211</v>
@@ -5581,7 +5581,7 @@
         <v>40497</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E11" s="18">
         <v>5010501030903</v>
@@ -5619,7 +5619,7 @@
         <v>173</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H12" s="21" t="s">
         <v>16</v>
@@ -5645,10 +5645,10 @@
         <v>6010401071583</v>
       </c>
       <c r="F13" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="G13" s="20" t="s">
         <v>356</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>357</v>
       </c>
       <c r="H13" s="21" t="s">
         <v>138</v>
@@ -5735,7 +5735,7 @@
         <v>141</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H16" s="21" t="s">
         <v>142</v>
@@ -6024,13 +6024,13 @@
         <v>6010401094452</v>
       </c>
       <c r="F26" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="G26" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="G26" s="20" t="s">
+      <c r="H26" s="21" t="s">
         <v>340</v>
-      </c>
-      <c r="H26" s="21" t="s">
-        <v>341</v>
       </c>
       <c r="I26" s="19"/>
       <c r="J26" s="19" t="s">
@@ -6053,10 +6053,10 @@
         <v>9010401099531</v>
       </c>
       <c r="F27" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="G27" s="20" t="s">
         <v>342</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>343</v>
       </c>
       <c r="H27" s="21" t="s">
         <v>153</v>
@@ -6134,7 +6134,7 @@
         <v>41880</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E30" s="18">
         <v>9010401105000</v>
@@ -6201,10 +6201,10 @@
         <v>235</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H32" s="21" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I32" s="19"/>
       <c r="J32" s="19" t="s">
@@ -6256,10 +6256,10 @@
         <v>4011001100453</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H34" s="21" t="s">
         <v>164</v>
@@ -6368,7 +6368,7 @@
         <v>42544</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E38" s="18">
         <v>4010001166406</v>
@@ -6403,13 +6403,13 @@
         <v>7700150006587</v>
       </c>
       <c r="F39" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="G39" s="20" t="s">
         <v>348</v>
       </c>
-      <c r="G39" s="20" t="s">
-        <v>349</v>
-      </c>
       <c r="H39" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I39" s="19"/>
       <c r="J39" s="19" t="s">
@@ -6432,13 +6432,13 @@
         <v>9011101071185</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G40" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="H40" s="21" t="s">
         <v>377</v>
-      </c>
-      <c r="H40" s="21" t="s">
-        <v>378</v>
       </c>
       <c r="I40" s="19"/>
       <c r="J40" s="19" t="s">
@@ -6496,7 +6496,7 @@
         <v>228</v>
       </c>
       <c r="H42" s="21" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I42" s="19"/>
       <c r="J42" s="19" t="s">
@@ -6609,7 +6609,7 @@
         <v>38</v>
       </c>
       <c r="G46" s="20" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H46" s="21" t="s">
         <v>273</v>
@@ -6635,10 +6635,10 @@
         <v>8010601051334</v>
       </c>
       <c r="F47" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="G47" s="20" t="s">
         <v>365</v>
-      </c>
-      <c r="G47" s="20" t="s">
-        <v>366</v>
       </c>
       <c r="H47" s="21" t="s">
         <v>179</v>
@@ -6664,7 +6664,7 @@
         <v>1010401135178</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G48" s="20" t="s">
         <v>180</v>
@@ -6716,7 +6716,7 @@
         <v>43263</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>310</v>
+        <v>416</v>
       </c>
       <c r="E50" s="18">
         <v>3010001183897</v>
@@ -6745,7 +6745,7 @@
         <v>43307</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E51" s="18">
         <v>8010001188396</v>
@@ -6774,16 +6774,16 @@
         <v>43308</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E52" s="18">
         <v>5011401019978</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G52" s="20" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H52" s="21" t="s">
         <v>252</v>
@@ -6803,7 +6803,7 @@
         <v>43327</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E53" s="18">
         <v>4010701034738</v>
@@ -6832,7 +6832,7 @@
         <v>43375</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E54" s="24">
         <v>4011001117670</v>
@@ -6861,7 +6861,7 @@
         <v>105</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E55" s="24">
         <v>3013301041741</v>
@@ -6870,7 +6870,7 @@
         <v>192</v>
       </c>
       <c r="G55" s="20" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H55" s="21" t="s">
         <v>193</v>
@@ -6890,7 +6890,7 @@
         <v>107</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E56" s="24">
         <v>3010901038102</v>
@@ -6919,7 +6919,7 @@
         <v>109</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E57" s="24">
         <v>5010001192707</v>
@@ -6948,7 +6948,7 @@
         <v>112</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E58" s="24">
         <v>7013301041449</v>
@@ -6977,16 +6977,16 @@
         <v>114</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E59" s="24">
         <v>3010001167611</v>
       </c>
       <c r="F59" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="G59" s="20" t="s">
         <v>373</v>
-      </c>
-      <c r="G59" s="20" t="s">
-        <v>374</v>
       </c>
       <c r="H59" s="21" t="s">
         <v>196</v>
@@ -7006,7 +7006,7 @@
         <v>116</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E60" s="24">
         <v>3010401049814</v>
@@ -7035,7 +7035,7 @@
         <v>119</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E61" s="24">
         <v>2010001190192</v>
@@ -7066,7 +7066,7 @@
         <v>43868</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E62" s="24">
         <v>5011801019594</v>
@@ -7095,16 +7095,16 @@
         <v>43868</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E63" s="24">
         <v>3010001161300</v>
       </c>
       <c r="F63" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="G63" s="20" t="s">
         <v>363</v>
-      </c>
-      <c r="G63" s="20" t="s">
-        <v>364</v>
       </c>
       <c r="H63" s="21" t="s">
         <v>201</v>
@@ -7124,16 +7124,16 @@
         <v>43887</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E64" s="24">
         <v>9011401020230</v>
       </c>
       <c r="F64" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="G64" s="20" t="s">
         <v>369</v>
-      </c>
-      <c r="G64" s="20" t="s">
-        <v>370</v>
       </c>
       <c r="H64" s="21" t="s">
         <v>202</v>
@@ -7153,7 +7153,7 @@
         <v>43888</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E65" s="24">
         <v>9010401134148</v>
@@ -7182,7 +7182,7 @@
         <v>43899</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E66" s="24">
         <v>7040001086061</v>
@@ -7211,7 +7211,7 @@
         <v>43922</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E67" s="24">
         <v>6020001125152</v>
@@ -7220,10 +7220,10 @@
         <v>203</v>
       </c>
       <c r="G67" s="17" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H67" s="21" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I67" s="19"/>
       <c r="J67" s="19" t="s">
@@ -7240,7 +7240,7 @@
         <v>44056</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E68" s="24">
         <v>7010001206332</v>
@@ -7269,7 +7269,7 @@
         <v>44070</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E69" s="24">
         <v>9011001103831</v>
@@ -7298,16 +7298,16 @@
         <v>44127</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E70" s="24">
         <v>8011001127534</v>
       </c>
       <c r="F70" s="21" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G70" s="20" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H70" s="21" t="s">
         <v>246</v>
@@ -7327,7 +7327,7 @@
         <v>44335</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E71" s="24">
         <v>6013201011825</v>
@@ -7356,7 +7356,7 @@
         <v>44371</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E72" s="24">
         <v>8010401050511</v>
@@ -7385,7 +7385,7 @@
         <v>44403</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E73" s="24">
         <v>5010401134795</v>
@@ -7443,7 +7443,7 @@
         <v>44650</v>
       </c>
       <c r="D75" s="20" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E75" s="24">
         <v>2040001094812</v>
@@ -7472,7 +7472,7 @@
         <v>44650</v>
       </c>
       <c r="D76" s="20" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E76" s="24">
         <v>8013301009057</v>
@@ -7501,7 +7501,7 @@
         <v>44978</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E77" s="24">
         <v>4010401049813</v>
@@ -7524,13 +7524,13 @@
     <row r="78" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="65"/>
       <c r="B78" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C78" s="23">
         <v>45254</v>
       </c>
       <c r="D78" s="20" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E78" s="24">
         <v>3010401113537</v>
@@ -7539,10 +7539,10 @@
         <v>192</v>
       </c>
       <c r="G78" s="20" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H78" s="21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I78" s="19"/>
       <c r="J78" s="19" t="s">
@@ -7553,13 +7553,13 @@
     <row r="79" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="65"/>
       <c r="B79" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C79" s="23">
         <v>45275</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E79" s="24">
         <v>6011101086450</v>
@@ -7568,10 +7568,10 @@
         <v>152</v>
       </c>
       <c r="G79" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="H79" s="21" t="s">
         <v>351</v>
-      </c>
-      <c r="H79" s="21" t="s">
-        <v>352</v>
       </c>
       <c r="I79" s="19"/>
       <c r="J79" s="19" t="s">
@@ -7582,25 +7582,25 @@
     <row r="80" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="65"/>
       <c r="B80" s="15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C80" s="23">
         <v>45735</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E80" s="24">
         <v>9010001141627</v>
       </c>
       <c r="F80" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="G80" s="20" t="s">
         <v>392</v>
       </c>
-      <c r="G80" s="20" t="s">
+      <c r="H80" s="21" t="s">
         <v>393</v>
-      </c>
-      <c r="H80" s="21" t="s">
-        <v>394</v>
       </c>
       <c r="I80" s="19"/>
       <c r="J80" s="19" t="s">
@@ -7611,13 +7611,13 @@
     <row r="81" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="65"/>
       <c r="B81" s="74" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C81" s="75">
         <v>45887</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E81" s="76">
         <v>1010001205562</v>
@@ -7626,10 +7626,10 @@
         <v>163</v>
       </c>
       <c r="G81" s="78" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H81" s="77" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I81" s="79"/>
       <c r="J81" s="79" t="s">
@@ -7640,13 +7640,13 @@
     <row r="82" spans="1:11" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="66"/>
       <c r="B82" s="39" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C82" s="81">
         <v>45908</v>
       </c>
       <c r="D82" s="20" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E82" s="82">
         <v>1010401137711</v>
@@ -7655,10 +7655,10 @@
         <v>148</v>
       </c>
       <c r="G82" s="25" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H82" s="83" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I82" s="26"/>
       <c r="J82" s="26" t="s">
@@ -7679,7 +7679,7 @@
         <v>40575</v>
       </c>
       <c r="D83" s="29" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E83" s="30">
         <v>5200001003514</v>
@@ -7712,7 +7712,7 @@
         <v>41075</v>
       </c>
       <c r="D84" s="34" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E84" s="35">
         <v>3210001014413</v>
@@ -7734,7 +7734,7 @@
     </row>
     <row r="85" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="69" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B85" s="10" t="s">
         <v>101</v>
@@ -7743,7 +7743,7 @@
         <v>42174</v>
       </c>
       <c r="D85" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E85" s="13">
         <v>2120001137521</v>
@@ -7766,25 +7766,25 @@
     <row r="86" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="60"/>
       <c r="B86" s="15" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C86" s="16">
         <v>45673</v>
       </c>
       <c r="D86" s="20" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E86" s="18">
         <v>1120001059675</v>
       </c>
       <c r="F86" s="38" t="s">
+        <v>381</v>
+      </c>
+      <c r="G86" s="20" t="s">
         <v>382</v>
       </c>
-      <c r="G86" s="20" t="s">
+      <c r="H86" s="15" t="s">
         <v>383</v>
-      </c>
-      <c r="H86" s="15" t="s">
-        <v>384</v>
       </c>
       <c r="I86" s="19"/>
       <c r="J86" s="19" t="s">
@@ -7795,25 +7795,25 @@
     <row r="87" spans="1:11" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="56"/>
       <c r="B87" s="39" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C87" s="50">
         <v>45688</v>
       </c>
       <c r="D87" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E87" s="52">
         <v>9120001075640</v>
       </c>
       <c r="F87" s="72" t="s">
+        <v>386</v>
+      </c>
+      <c r="G87" s="25" t="s">
         <v>387</v>
       </c>
-      <c r="G87" s="25" t="s">
+      <c r="H87" s="39" t="s">
         <v>388</v>
-      </c>
-      <c r="H87" s="39" t="s">
-        <v>389</v>
       </c>
       <c r="I87" s="26" t="s">
         <v>220</v>
